--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/esxihttp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/tesla-bmaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375D629-F318-2245-8787-1E633BCDC02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467D19A-F5A2-AB41-BE48-7BBC6E12045C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <t>ESXi image</t>
   </si>
   <si>
-    <t>http://10.0.0.20</t>
+    <t>http://10.37.0.26</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -970,15 +970,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF220DD1F5C4CE4F84F64F5AF49DB9EE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90c04ed21cc6d9d0a8062b658f6da360">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="06fc048b-0742-4b12-8c99-f64ada4dab12" xmlns:ns4="420b1caf-0da6-4c93-b8f0-e54cf6b84b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ec74fa404bf27344389f2ff6b5a9ef4" ns3:_="" ns4:_="">
     <xsd:import namespace="06fc048b-0742-4b12-8c99-f64ada4dab12"/>
@@ -1187,6 +1178,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D24959D-2EAF-4BA9-B124-B146F8BCEB26}">
   <ds:schemaRefs>
@@ -1205,14 +1205,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AAB25B-241E-441A-B096-A4CB95D95135}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC0DF7C-3E35-427F-BB75-4E24E9EBF82C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1229,4 +1221,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AAB25B-241E-441A-B096-A4CB95D95135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/tesla-bmaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467D19A-F5A2-AB41-BE48-7BBC6E12045C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D67838-1315-8A4B-8CA0-54325C2DD676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>fqdn</t>
   </si>
@@ -83,9 +83,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>CEIP participation (0=ask, 1=yes, 2=no)</t>
   </si>
   <si>
@@ -95,78 +92,6 @@
     <t>vSAN capacitydisk(s)</t>
   </si>
   <si>
-    <t>10.0.1.21</t>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-  </si>
-  <si>
-    <t>10.0.1.1</t>
-  </si>
-  <si>
-    <t>Apacer_SM230</t>
-  </si>
-  <si>
-    <t>vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>--iscrypted $6$0lIy5uWJlPsz5SCc$vM9J7t6yuvrOSJjtiJM73kcN9uO8qahm3QJE0SVK7Xrwz0tlag9lIC/4sQw3mG.x3g5HFYmaYCSxrP4ax5i670</t>
-  </si>
-  <si>
-    <t>10.0.1.22</t>
-  </si>
-  <si>
-    <t>10.0.1.23</t>
-  </si>
-  <si>
-    <t>10.0.1.24</t>
-  </si>
-  <si>
-    <t>10.0.1.7</t>
-  </si>
-  <si>
-    <t>00b259ed-7772-e311-a72c-b8aeed720482</t>
-  </si>
-  <si>
-    <t>Samsung_SSD_850_EVO_250GB</t>
-  </si>
-  <si>
-    <t>0.fi.pool.ntp.org,1.fi.pool.ntp.org</t>
-  </si>
-  <si>
-    <t>--firstdisk=usb</t>
-  </si>
-  <si>
-    <t>box1.vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>box2.vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>box3.vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>box4.vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>nuke.vcf.oizone.net</t>
-  </si>
-  <si>
-    <t>62.241.198.245,62.241.198.246</t>
-  </si>
-  <si>
-    <t>01-84-7b-eb-ff-bc-67</t>
-  </si>
-  <si>
-    <t>01-84-7b-eb-ff-bd-25</t>
-  </si>
-  <si>
-    <t>01-84-7b-eb-ff-be-19</t>
-  </si>
-  <si>
-    <t>01-84-7b-eb-ff-be-33</t>
-  </si>
-  <si>
     <t>iDRAC</t>
   </si>
   <si>
@@ -177,6 +102,117 @@
   </si>
   <si>
     <t>http://10.37.0.26</t>
+  </si>
+  <si>
+    <t>r640n01.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n02.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>172.16.0.2</t>
+  </si>
+  <si>
+    <t>172.16.0.3</t>
+  </si>
+  <si>
+    <t>172.16.0.4</t>
+  </si>
+  <si>
+    <t>172.16.0.5</t>
+  </si>
+  <si>
+    <t>172.16.0.6</t>
+  </si>
+  <si>
+    <t>172.16.0.34</t>
+  </si>
+  <si>
+    <t>172.16.0.35</t>
+  </si>
+  <si>
+    <t>172.16.0.36</t>
+  </si>
+  <si>
+    <t>172.16.0.37</t>
+  </si>
+  <si>
+    <t>172.16.0.38</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>172.16.0.33</t>
+  </si>
+  <si>
+    <t>10.37.0.2,10.37.0.3</t>
+  </si>
+  <si>
+    <t>--firstdisk=usb,local --ignoressd</t>
+  </si>
+  <si>
+    <t>10.39.0.4</t>
+  </si>
+  <si>
+    <t>10.39.0.5</t>
+  </si>
+  <si>
+    <t>10.39.0.6</t>
+  </si>
+  <si>
+    <t>10.39.0.7</t>
+  </si>
+  <si>
+    <t>10.39.0.8</t>
+  </si>
+  <si>
+    <t>10.39.0.9</t>
+  </si>
+  <si>
+    <t>10.39.0.10</t>
+  </si>
+  <si>
+    <t>10.39.0.11</t>
+  </si>
+  <si>
+    <t>10.39.0.12</t>
+  </si>
+  <si>
+    <t>10.39.0.13</t>
+  </si>
+  <si>
+    <t>VMware123!</t>
+  </si>
+  <si>
+    <t>stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n03.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n04.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n05.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n06.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n07.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n08.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n09.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>r640n10.stage1.ci.demo.tieto.com</t>
   </si>
 </sst>
 </file>
@@ -235,17 +271,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -278,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:Q7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:Q7" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:Q12" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:Q12" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{B0956144-C53D-694B-AB9E-A4F29158AF7F}" name="fqdn"/>
     <tableColumn id="2" xr3:uid="{F9DF3A82-4FC7-BE4A-924B-BA14CDC09BCE}" name="nic"/>
@@ -287,13 +352,13 @@
     <tableColumn id="4" xr3:uid="{45769D14-46A5-A042-91D4-1242BB8E0470}" name="netmask"/>
     <tableColumn id="5" xr3:uid="{899FDD3A-A436-0E4E-8AE7-247F79455847}" name="gateway"/>
     <tableColumn id="6" xr3:uid="{A210749C-C239-1C43-96CF-3172A67AE292}" name="dns"/>
-    <tableColumn id="7" xr3:uid="{0C30451D-D086-9040-8182-4AA60DC9E0F5}" name="vlan"/>
-    <tableColumn id="8" xr3:uid="{48D15A6C-F240-ED4A-8899-DD9FC976EA47}" name="iDRAC"/>
+    <tableColumn id="7" xr3:uid="{0C30451D-D086-9040-8182-4AA60DC9E0F5}" name="vlan" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{48D15A6C-F240-ED4A-8899-DD9FC976EA47}" name="iDRAC" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{822365D6-E478-3A43-910B-9A904F3AD601}" name="Disk selection"/>
     <tableColumn id="10" xr3:uid="{9DFDC55C-94B9-E444-A48A-8E3FEBB1A624}" name="vSAN capacitydisk(s)"/>
     <tableColumn id="11" xr3:uid="{450128CA-BCC2-3546-A25E-7FE95058E4DE}" name="ntp(s)"/>
     <tableColumn id="12" xr3:uid="{474098CC-8547-9643-B60E-25CDCE4ECC4E}" name="domain"/>
-    <tableColumn id="13" xr3:uid="{E3E9CB7D-ABD6-534F-B334-AAF0C671B5B9}" name="password"/>
+    <tableColumn id="13" xr3:uid="{E3E9CB7D-ABD6-534F-B334-AAF0C671B5B9}" name="password" dataDxfId="2"/>
     <tableColumn id="14" xr3:uid="{D07AF923-BB9E-8347-A495-7901FBDA92BD}" name="CEIP participation (0=ask, 1=yes, 2=no)"/>
     <tableColumn id="15" xr3:uid="{07DCFB54-26B9-D14C-BB95-8D2AC80779F5}" name="Transparent page sharing"/>
     <tableColumn id="16" xr3:uid="{BFBF5224-12BC-0247-B7F2-85BA64844219}" name="create vSAN"/>
@@ -600,25 +665,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C0852-A23D-4AC6-A0A2-2AEDE18809CF}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
     <col min="14" max="14" width="32.5" customWidth="1"/>
@@ -632,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -658,13 +723,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
@@ -676,74 +741,72 @@
         <v>8</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4">
+        <v>240</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3">
-        <v>1110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -752,48 +815,49 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4">
+        <v>240</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4">
-        <v>1110</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
         <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -802,51 +866,49 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4">
+        <v>240</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5">
-        <v>1110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" t="s">
         <v>14</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -855,51 +917,49 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4">
+        <v>240</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G6">
-        <v>1110</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -908,46 +968,294 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4">
+        <v>240</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7">
-        <v>1110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
+        <v>241</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4">
+        <v>241</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4">
+        <v>241</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4">
+        <v>241</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4">
+        <v>241</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/tesla-bmaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D67838-1315-8A4B-8CA0-54325C2DD676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791B268-8F00-A34B-A87A-8B96FD038361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>fqdn</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>r640n10.stage1.ci.demo.tieto.com</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>stage1-m</t>
+  </si>
+  <si>
+    <t>stage1-w</t>
   </si>
 </sst>
 </file>
@@ -343,9 +352,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:Q12" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:Q12" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:R12" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:R12" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{B0956144-C53D-694B-AB9E-A4F29158AF7F}" name="fqdn"/>
     <tableColumn id="2" xr3:uid="{F9DF3A82-4FC7-BE4A-924B-BA14CDC09BCE}" name="nic"/>
     <tableColumn id="3" xr3:uid="{EF6FF2A6-9B32-7D43-AA2A-86E3A91E34D9}" name="ip"/>
@@ -363,6 +372,7 @@
     <tableColumn id="15" xr3:uid="{07DCFB54-26B9-D14C-BB95-8D2AC80779F5}" name="Transparent page sharing"/>
     <tableColumn id="16" xr3:uid="{BFBF5224-12BC-0247-B7F2-85BA64844219}" name="create vSAN"/>
     <tableColumn id="17" xr3:uid="{A60F845B-AA64-274E-96D9-C95FB375306C}" name="ESXi image"/>
+    <tableColumn id="18" xr3:uid="{E3B0482C-FF82-1A4D-B38E-A05B7F0AA7F3}" name="Deployment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C0852-A23D-4AC6-A0A2-2AEDE18809CF}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,7 +702,7 @@
     <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -700,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,8 +762,11 @@
       <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -803,8 +816,11 @@
       <c r="Q3" t="s">
         <v>19</v>
       </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -854,8 +870,11 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -905,8 +924,11 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -956,8 +978,11 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1007,8 +1032,11 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1057,8 +1085,11 @@
       <c r="Q8" t="s">
         <v>19</v>
       </c>
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1107,8 +1138,11 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
+      <c r="R9" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1157,8 +1191,11 @@
       <c r="Q10" t="s">
         <v>19</v>
       </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1207,8 +1244,11 @@
       <c r="Q11" t="s">
         <v>19</v>
       </c>
+      <c r="R11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1256,6 +1296,9 @@
       </c>
       <c r="Q12" t="s">
         <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/tesla-bmaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791B268-8F00-A34B-A87A-8B96FD038361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B5C1A-F7EC-7C4D-AB11-199B8F8BEEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="2" r:id="rId1"/>
@@ -294,16 +294,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -318,6 +308,16 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -361,13 +361,13 @@
     <tableColumn id="4" xr3:uid="{45769D14-46A5-A042-91D4-1242BB8E0470}" name="netmask"/>
     <tableColumn id="5" xr3:uid="{899FDD3A-A436-0E4E-8AE7-247F79455847}" name="gateway"/>
     <tableColumn id="6" xr3:uid="{A210749C-C239-1C43-96CF-3172A67AE292}" name="dns"/>
-    <tableColumn id="7" xr3:uid="{0C30451D-D086-9040-8182-4AA60DC9E0F5}" name="vlan" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{48D15A6C-F240-ED4A-8899-DD9FC976EA47}" name="iDRAC" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{0C30451D-D086-9040-8182-4AA60DC9E0F5}" name="vlan" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{48D15A6C-F240-ED4A-8899-DD9FC976EA47}" name="iDRAC" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{822365D6-E478-3A43-910B-9A904F3AD601}" name="Disk selection"/>
     <tableColumn id="10" xr3:uid="{9DFDC55C-94B9-E444-A48A-8E3FEBB1A624}" name="vSAN capacitydisk(s)"/>
     <tableColumn id="11" xr3:uid="{450128CA-BCC2-3546-A25E-7FE95058E4DE}" name="ntp(s)"/>
     <tableColumn id="12" xr3:uid="{474098CC-8547-9643-B60E-25CDCE4ECC4E}" name="domain"/>
-    <tableColumn id="13" xr3:uid="{E3E9CB7D-ABD6-534F-B334-AAF0C671B5B9}" name="password" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{E3E9CB7D-ABD6-534F-B334-AAF0C671B5B9}" name="password" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{D07AF923-BB9E-8347-A495-7901FBDA92BD}" name="CEIP participation (0=ask, 1=yes, 2=no)"/>
     <tableColumn id="15" xr3:uid="{07DCFB54-26B9-D14C-BB95-8D2AC80779F5}" name="Transparent page sharing"/>
     <tableColumn id="16" xr3:uid="{BFBF5224-12BC-0247-B7F2-85BA64844219}" name="create vSAN"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/tesla-bmaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B5C1A-F7EC-7C4D-AB11-199B8F8BEEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D919B-EFFA-9E4D-BB44-4CC1E2E76EEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
   <si>
     <t>fqdn</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>stage1-w</t>
+  </si>
+  <si>
+    <t>iDRAC username</t>
+  </si>
+  <si>
+    <t>iDRAC password</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>calvin</t>
   </si>
 </sst>
 </file>
@@ -352,9 +364,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:R12" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:R12" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:T12" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:T12" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{B0956144-C53D-694B-AB9E-A4F29158AF7F}" name="fqdn"/>
     <tableColumn id="2" xr3:uid="{F9DF3A82-4FC7-BE4A-924B-BA14CDC09BCE}" name="nic"/>
     <tableColumn id="3" xr3:uid="{EF6FF2A6-9B32-7D43-AA2A-86E3A91E34D9}" name="ip"/>
@@ -373,6 +385,8 @@
     <tableColumn id="16" xr3:uid="{BFBF5224-12BC-0247-B7F2-85BA64844219}" name="create vSAN"/>
     <tableColumn id="17" xr3:uid="{A60F845B-AA64-274E-96D9-C95FB375306C}" name="ESXi image"/>
     <tableColumn id="18" xr3:uid="{E3B0482C-FF82-1A4D-B38E-A05B7F0AA7F3}" name="Deployment"/>
+    <tableColumn id="19" xr3:uid="{1AA34759-82A4-494E-B1C7-1DAD1D53F44D}" name="iDRAC username"/>
+    <tableColumn id="20" xr3:uid="{2C3BA30E-38B4-C647-912C-E8A9183B9F28}" name="iDRAC password"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C0852-A23D-4AC6-A0A2-2AEDE18809CF}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,7 +716,7 @@
     <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -710,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,8 +779,14 @@
       <c r="R2" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -819,8 +839,14 @@
       <c r="R3" t="s">
         <v>60</v>
       </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -873,8 +899,14 @@
       <c r="R4" t="s">
         <v>60</v>
       </c>
+      <c r="S4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -927,8 +959,14 @@
       <c r="R5" t="s">
         <v>60</v>
       </c>
+      <c r="S5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -981,8 +1019,14 @@
       <c r="R6" t="s">
         <v>60</v>
       </c>
+      <c r="S6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1035,8 +1079,14 @@
       <c r="R7" t="s">
         <v>60</v>
       </c>
+      <c r="S7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1088,8 +1138,14 @@
       <c r="R8" t="s">
         <v>61</v>
       </c>
+      <c r="S8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1141,8 +1197,14 @@
       <c r="R9" t="s">
         <v>61</v>
       </c>
+      <c r="S9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1194,8 +1256,14 @@
       <c r="R10" t="s">
         <v>61</v>
       </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1247,8 +1315,14 @@
       <c r="R11" t="s">
         <v>61</v>
       </c>
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1299,6 +1373,12 @@
       </c>
       <c r="R12" t="s">
         <v>61</v>
+      </c>
+      <c r="S12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
